--- a/ModelSave/L3-LKAS-Version.xlsx
+++ b/ModelSave/L3-LKAS-Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LKAS\ModelSave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D23E461-AA66-45DF-98FD-9A609A0630F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676B702A-8642-491C-9D33-A82044ED964A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7790" xr2:uid="{886001C4-49BE-4C21-9C77-AEA2291935AF}"/>
   </bookViews>
@@ -102,20 +102,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -124,12 +145,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,133 +482,138 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>20201127</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>20210203</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>20210301</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>20210315</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
